--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.11928833333334</v>
+        <v>192.352885</v>
       </c>
       <c r="H2">
-        <v>111.357865</v>
+        <v>577.058655</v>
       </c>
       <c r="I2">
-        <v>0.08973251933053686</v>
+        <v>0.3381139681403721</v>
       </c>
       <c r="J2">
-        <v>0.08973251933053686</v>
+        <v>0.3381139681403722</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N2">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q2">
-        <v>2314.429646617727</v>
+        <v>40775.03515580879</v>
       </c>
       <c r="R2">
-        <v>20829.86681955954</v>
+        <v>366975.3164022791</v>
       </c>
       <c r="S2">
-        <v>0.08632273091409567</v>
+        <v>0.3342307006936855</v>
       </c>
       <c r="T2">
-        <v>0.08632273091409567</v>
+        <v>0.3342307006936856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.11928833333334</v>
+        <v>192.352885</v>
       </c>
       <c r="H3">
-        <v>111.357865</v>
+        <v>577.058655</v>
       </c>
       <c r="I3">
-        <v>0.08973251933053686</v>
+        <v>0.3381139681403721</v>
       </c>
       <c r="J3">
-        <v>0.08973251933053686</v>
+        <v>0.3381139681403722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q3">
-        <v>31.78414539427945</v>
+        <v>164.7060689565783</v>
       </c>
       <c r="R3">
-        <v>286.057308548515</v>
+        <v>1482.354620609205</v>
       </c>
       <c r="S3">
-        <v>0.001185473161482559</v>
+        <v>0.001350086508215243</v>
       </c>
       <c r="T3">
-        <v>0.001185473161482559</v>
+        <v>0.001350086508215243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.11928833333334</v>
+        <v>192.352885</v>
       </c>
       <c r="H4">
-        <v>111.357865</v>
+        <v>577.058655</v>
       </c>
       <c r="I4">
-        <v>0.08973251933053686</v>
+        <v>0.3381139681403721</v>
       </c>
       <c r="J4">
-        <v>0.08973251933053686</v>
+        <v>0.3381139681403722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q4">
-        <v>59.63691272259889</v>
+        <v>309.0396591570367</v>
       </c>
       <c r="R4">
-        <v>536.7322145033901</v>
+        <v>2781.35693241333</v>
       </c>
       <c r="S4">
-        <v>0.002224315254958626</v>
+        <v>0.002533180938471353</v>
       </c>
       <c r="T4">
-        <v>0.002224315254958626</v>
+        <v>0.002533180938471353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>504.983674</v>
       </c>
       <c r="I5">
-        <v>0.4069174394535179</v>
+        <v>0.2958833255212922</v>
       </c>
       <c r="J5">
-        <v>0.4069174394535179</v>
+        <v>0.2958833255212922</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N5">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q5">
-        <v>10495.43457180632</v>
+        <v>35682.20818117612</v>
       </c>
       <c r="R5">
-        <v>94458.9111462569</v>
+        <v>321139.873630585</v>
       </c>
       <c r="S5">
-        <v>0.3914547913316532</v>
+        <v>0.2924850805675753</v>
       </c>
       <c r="T5">
-        <v>0.3914547913316532</v>
+        <v>0.2924850805675753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>504.983674</v>
       </c>
       <c r="I6">
-        <v>0.4069174394535179</v>
+        <v>0.2958833255212922</v>
       </c>
       <c r="J6">
-        <v>0.4069174394535179</v>
+        <v>0.2958833255212922</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q6">
         <v>144.1341796212904</v>
@@ -818,10 +818,10 @@
         <v>1297.207616591614</v>
       </c>
       <c r="S6">
-        <v>0.00537586269738431</v>
+        <v>0.001181459872803337</v>
       </c>
       <c r="T6">
-        <v>0.00537586269738431</v>
+        <v>0.001181459872803337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>504.983674</v>
       </c>
       <c r="I7">
-        <v>0.4069174394535179</v>
+        <v>0.2958833255212922</v>
       </c>
       <c r="J7">
-        <v>0.4069174394535179</v>
+        <v>0.2958833255212922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q7">
         <v>270.4404156156849</v>
@@ -880,10 +880,10 @@
         <v>2433.963740541164</v>
       </c>
       <c r="S7">
-        <v>0.01008678542448038</v>
+        <v>0.002216785080913537</v>
       </c>
       <c r="T7">
-        <v>0.01008678542448038</v>
+        <v>0.002216785080913537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>624.656327</v>
       </c>
       <c r="I8">
-        <v>0.5033500412159452</v>
+        <v>0.3660027063383355</v>
       </c>
       <c r="J8">
-        <v>0.5033500412159452</v>
+        <v>0.3660027063383356</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N8">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q8">
-        <v>12982.67636647072</v>
+        <v>44138.29248211067</v>
       </c>
       <c r="R8">
-        <v>116844.0872982365</v>
+        <v>397244.632338996</v>
       </c>
       <c r="S8">
-        <v>0.4842230050783423</v>
+        <v>0.3617991343808091</v>
       </c>
       <c r="T8">
-        <v>0.4842230050783423</v>
+        <v>0.3617991343808092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>624.656327</v>
       </c>
       <c r="I9">
-        <v>0.5033500412159452</v>
+        <v>0.3660027063383355</v>
       </c>
       <c r="J9">
-        <v>0.5033500412159452</v>
+        <v>0.3660027063383356</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q9">
         <v>178.2915604463552</v>
@@ -1004,10 +1004,10 @@
         <v>1604.624044017197</v>
       </c>
       <c r="S9">
-        <v>0.006649851905914083</v>
+        <v>0.001461446028140742</v>
       </c>
       <c r="T9">
-        <v>0.006649851905914083</v>
+        <v>0.001461446028140743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>624.656327</v>
       </c>
       <c r="I10">
-        <v>0.5033500412159452</v>
+        <v>0.3660027063383355</v>
       </c>
       <c r="J10">
-        <v>0.5033500412159452</v>
+        <v>0.3660027063383356</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q10">
         <v>334.5302539243025</v>
@@ -1066,10 +1066,10 @@
         <v>3010.772285318722</v>
       </c>
       <c r="S10">
-        <v>0.01247718423168875</v>
+        <v>0.002742125929385685</v>
       </c>
       <c r="T10">
-        <v>0.01247718423168875</v>
+        <v>0.002742125929385686</v>
       </c>
     </row>
   </sheetData>
